--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_3_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_3_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.31000000000052</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1842378929335e-16</v>
+        <v>1.193788198521674e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>56.12571197623412</v>
+        <v>57.68819121972619</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[50.636302254569614, 61.61512169789863]</t>
+          <t>[51.81034810587181, 63.56603433358056]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.478026573760963, 1.6792897667837332]</t>
+          <t>[1.4654476241970409, 1.6918687163476553]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.79973137604286</v>
+        <v>54.82093795740162</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.02190139610867, 56.57756135597706]</t>
+          <t>[50.76697587121813, 58.87490004358511]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.95083083083122</v>
+        <v>18.99575575575615</v>
       </c>
       <c r="X2" t="n">
-        <v>18.54546546546585</v>
+        <v>18.53863863863902</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.35619619619659</v>
+        <v>19.45287287287328</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.24000000000019</v>
+        <v>22.94000000000015</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1842378929335e-16</v>
+        <v>1.193788198521674e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>59.87791218259948</v>
+        <v>58.98821269634977</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[51.30718823438414, 68.44863613081482]</t>
+          <t>[50.20080893978297, 67.77561645291657]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6792632764518469</v>
+        <v>-1.22015810770054</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, -0.5408948312486928]</t>
+          <t>[-1.371105502467616, -1.0692107129334634]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.77644842690673</v>
+        <v>54.103334653571</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.41636852424663, 60.13652832956682]</t>
+          <t>[49.232083445295864, 58.97458586184613]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.512432432432451</v>
+        <v>4.454814814814842</v>
       </c>
       <c r="X3" t="n">
-        <v>2.000640640640654</v>
+        <v>3.903703703703731</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.024224224224248</v>
+        <v>5.005925925925954</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_3_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_3_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.37000000000053</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.193788198521674e-16</v>
+        <v>1.203493793631606e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>57.68819121972619</v>
+        <v>56.69996799231123</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[51.81034810587181, 63.56603433358056]</t>
+          <t>[50.97921902105436, 62.4207169635681]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4654476241970409, 1.6918687163476553]</t>
+          <t>[1.46544762419704, 1.6667108172198102]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.82093795740162</v>
+        <v>53.14936483927916</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.76697587121813, 58.87490004358511]</t>
+          <t>[49.28284530857562, 57.0158843699827]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.99575575575615</v>
+        <v>19.11411411411452</v>
       </c>
       <c r="X2" t="n">
-        <v>18.53863863863902</v>
+        <v>18.70634634634674</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.45287287287328</v>
+        <v>19.5218818818823</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.94000000000015</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.193788198521674e-16</v>
+        <v>1.203493793631606e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>58.98821269634977</v>
+        <v>59.76466354115363</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[50.20080893978297, 67.77561645291657]</t>
+          <t>[50.96280702063565, 68.56652006167161]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.22015810770054</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.371105502467616, -1.0692107129334634]</t>
+          <t>[-1.1572633598809245, -0.8302106712189241]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.103334653571</v>
+        <v>55.16585797085961</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.232083445295864, 58.97458586184613]</t>
+          <t>[50.499638535929826, 59.832077405789384]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.454814814814842</v>
+        <v>3.64554554554557</v>
       </c>
       <c r="X3" t="n">
-        <v>3.903703703703731</v>
+        <v>3.045645645645666</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.005925925925954</v>
+        <v>4.245445445445474</v>
       </c>
     </row>
   </sheetData>
